--- a/public/DataKategori/KATEGORI.xlsx
+++ b/public/DataKategori/KATEGORI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAA4051-B107-401F-AB1A-4060A7262415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6C40B8-68B6-4BC4-A63B-2FC735477437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BE668309-F351-4CB7-B620-9A2CD50ED38E}"/>
   </bookViews>
@@ -34,36 +34,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>AMAL</t>
-  </si>
-  <si>
-    <t>AMALL</t>
-  </si>
-  <si>
-    <t>AMALLL</t>
-  </si>
-  <si>
-    <t>TABUNGAN</t>
-  </si>
-  <si>
-    <t>TABUNGAN1</t>
-  </si>
-  <si>
-    <t>TABUNGAN2</t>
-  </si>
-  <si>
-    <t>TABUNGAN3</t>
-  </si>
-  <si>
-    <t>TABUNGAN 4</t>
-  </si>
-  <si>
-    <t>TABUNGAN 5</t>
-  </si>
-  <si>
-    <t>MASA DEPAN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Gaji</t>
+  </si>
+  <si>
+    <t>Pendapatan utama dari pekerjaan tetap.</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Penghasilan tambahan dari pekerjaan utama.</t>
+  </si>
+  <si>
+    <t>Honorarium</t>
+  </si>
+  <si>
+    <t>Pembayaran untuk jasa profesional atau layanan yang tidak teratur.</t>
+  </si>
+  <si>
+    <t>Layanan/Jasa</t>
+  </si>
+  <si>
+    <t>Penghasilan dari penyediaan jasa.</t>
+  </si>
+  <si>
+    <t>Komisi</t>
+  </si>
+  <si>
+    <t>Penghasilan dari komisi penjualan produk atau jasa.</t>
+  </si>
+  <si>
+    <t>Bunga Tabungan/Deposito</t>
+  </si>
+  <si>
+    <t>Penghasilan dari bunga bank.</t>
+  </si>
+  <si>
+    <t>Dividen Saham</t>
+  </si>
+  <si>
+    <t>Pendapatan dari kepemilikan saham.</t>
+  </si>
+  <si>
+    <t>Sewa Properti</t>
+  </si>
+  <si>
+    <t>Penghasilan dari menyewakan properti seperti rumah atau apartemen.</t>
+  </si>
+  <si>
+    <t>Hibah</t>
+  </si>
+  <si>
+    <t>Dana yang diterima dari lembaga atau pemerintah untuk tujuan tertentu.</t>
+  </si>
+  <si>
+    <t>Donasi</t>
+  </si>
+  <si>
+    <t>Sumbangan sukarela dari individu atau organisasi.</t>
   </si>
 </sst>
 </file>
@@ -415,13 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12A6DE0-5963-456F-BE47-53B9C064F557}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -431,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -439,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -483,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -494,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,10 +539,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -516,10 +550,21 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataKategori/KATEGORI.xlsx
+++ b/public/DataKategori/KATEGORI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAA4051-B107-401F-AB1A-4060A7262415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF916B28-D745-4634-831F-5F955E0010A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BE668309-F351-4CB7-B620-9A2CD50ED38E}"/>
   </bookViews>
@@ -34,36 +34,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>AMAL</t>
-  </si>
-  <si>
-    <t>AMALL</t>
-  </si>
-  <si>
-    <t>AMALLL</t>
-  </si>
-  <si>
-    <t>TABUNGAN</t>
-  </si>
-  <si>
-    <t>TABUNGAN1</t>
-  </si>
-  <si>
-    <t>TABUNGAN2</t>
-  </si>
-  <si>
-    <t>TABUNGAN3</t>
-  </si>
-  <si>
-    <t>TABUNGAN 4</t>
-  </si>
-  <si>
-    <t>TABUNGAN 5</t>
-  </si>
-  <si>
-    <t>MASA DEPAN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Gaji</t>
+  </si>
+  <si>
+    <t>Pendapatan utama dari pekerjaan tetap.</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Penghasilan tambahan dari pekerjaan utama.</t>
+  </si>
+  <si>
+    <t>Honorarium</t>
+  </si>
+  <si>
+    <t>Pembayaran untuk jasa profesional atau layanan yang tidak teratur.</t>
+  </si>
+  <si>
+    <t>Layanan/Jasa</t>
+  </si>
+  <si>
+    <t>Penghasilan dari penyediaan jasa.</t>
+  </si>
+  <si>
+    <t>Komisi</t>
+  </si>
+  <si>
+    <t>Penghasilan dari komisi penjualan produk atau jasa.</t>
+  </si>
+  <si>
+    <t>Bunga Tabungan/Deposito</t>
+  </si>
+  <si>
+    <t>Penghasilan dari bunga bank.</t>
+  </si>
+  <si>
+    <t>Dividen Saham</t>
+  </si>
+  <si>
+    <t>Pendapatan dari kepemilikan saham.</t>
+  </si>
+  <si>
+    <t>Sewa Properti</t>
+  </si>
+  <si>
+    <t>Penghasilan dari menyewakan properti seperti rumah atau apartemen.</t>
+  </si>
+  <si>
+    <t>Hibah</t>
+  </si>
+  <si>
+    <t>Dana yang diterima dari lembaga atau pemerintah untuk tujuan tertentu.</t>
+  </si>
+  <si>
+    <t>Donasi</t>
+  </si>
+  <si>
+    <t>Sumbangan sukarela dari individu atau organisasi.</t>
   </si>
 </sst>
 </file>
@@ -415,23 +445,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12A6DE0-5963-456F-BE47-53B9C064F557}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -439,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -483,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -494,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -516,13 +550,27 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C10">
+    <sortCondition ref="B1:B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>